--- a/mbrMoPvt_85.xlsx
+++ b/mbrMoPvt_85.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>m-2019-01</t>
   </si>
@@ -124,55 +124,13 @@
     <t>m-2021-12</t>
   </si>
   <si>
-    <t>ORG_GROUP_ID</t>
-  </si>
-  <si>
-    <t>Ungrouped</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|208951125</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|261317065</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|278549018</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|452067776</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|454440978</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|460904659</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|467842968</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|472290570</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|592830200</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|592830201</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|592898487</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|593590423</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|593684659</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|631054301</t>
-  </si>
-  <si>
-    <t>cj_net|ILUMEDPI|832991028</t>
+    <t>org_id</t>
+  </si>
+  <si>
+    <t>ADAUGEOPI</t>
+  </si>
+  <si>
+    <t>ILUMEDPI</t>
   </si>
 </sst>
 </file>
@@ -530,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK17"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,487 +612,225 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>2799</v>
+        <v>6150.12</v>
       </c>
       <c r="C2">
-        <v>2814</v>
+        <v>5823.6</v>
       </c>
       <c r="D2">
-        <v>2828</v>
+        <v>6440.7</v>
       </c>
       <c r="E2">
-        <v>2842</v>
+        <v>7129.88</v>
       </c>
       <c r="F2">
-        <v>2855</v>
+        <v>6853.6</v>
       </c>
       <c r="G2">
-        <v>2867</v>
+        <v>6726.18</v>
       </c>
       <c r="H2">
-        <v>2893</v>
+        <v>6821.74</v>
       </c>
       <c r="I2">
-        <v>2908</v>
+        <v>7244.3</v>
       </c>
       <c r="J2">
-        <v>2923</v>
+        <v>7605.29</v>
       </c>
       <c r="K2">
-        <v>2932</v>
+        <v>7793.32</v>
       </c>
       <c r="L2">
-        <v>2945</v>
+        <v>7446.01</v>
       </c>
       <c r="M2">
-        <v>2967</v>
+        <v>6705.23</v>
       </c>
       <c r="N2">
-        <v>2986</v>
+        <v>6684.75</v>
       </c>
       <c r="O2">
-        <v>3001</v>
+        <v>6751.91</v>
       </c>
       <c r="P2">
-        <v>3008</v>
+        <v>5638.49</v>
       </c>
       <c r="Q2">
-        <v>3021</v>
+        <v>4241.49</v>
       </c>
       <c r="R2">
-        <v>3024</v>
+        <v>5776.06</v>
       </c>
       <c r="S2">
-        <v>3030</v>
+        <v>7476.47</v>
       </c>
       <c r="T2">
-        <v>3036</v>
+        <v>6988.45</v>
       </c>
       <c r="U2">
-        <v>3036</v>
+        <v>7160.53</v>
       </c>
       <c r="V2">
-        <v>3036</v>
+        <v>7588.69</v>
       </c>
       <c r="W2">
-        <v>3037</v>
+        <v>8214.120000000001</v>
       </c>
       <c r="X2">
-        <v>3037</v>
+        <v>7875.81</v>
       </c>
       <c r="Y2">
-        <v>3038</v>
+        <v>7143.2</v>
       </c>
       <c r="Z2">
-        <v>3039</v>
+        <v>7412.51</v>
       </c>
       <c r="AA2">
-        <v>3039</v>
+        <v>6917.17</v>
       </c>
       <c r="AB2">
-        <v>3039</v>
+        <v>8937.18</v>
+      </c>
+      <c r="AC2">
+        <v>9146.110000000001</v>
+      </c>
+      <c r="AD2">
+        <v>9411.950000000001</v>
+      </c>
+      <c r="AE2">
+        <v>9881.51</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>8757.959999999999</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>9436.24</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>9232.860000000001</v>
       </c>
       <c r="AI2">
-        <v>153</v>
+        <v>8269.09</v>
       </c>
       <c r="AJ2">
-        <v>152</v>
+        <v>3213.77</v>
       </c>
       <c r="AK2">
-        <v>154</v>
+        <v>4.31</v>
       </c>
     </row>
     <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B3">
+        <v>8838</v>
+      </c>
+      <c r="C3">
+        <v>8330.969999999999</v>
+      </c>
+      <c r="D3">
+        <v>9780.91</v>
+      </c>
+      <c r="E3">
+        <v>10460.91</v>
+      </c>
+      <c r="F3">
+        <v>9510.389999999999</v>
+      </c>
+      <c r="G3">
+        <v>10345.04</v>
+      </c>
+      <c r="H3">
+        <v>10214.63</v>
+      </c>
+      <c r="I3">
+        <v>9316.98</v>
+      </c>
+      <c r="J3">
+        <v>8086.1</v>
+      </c>
+      <c r="K3">
+        <v>12006.33</v>
+      </c>
+      <c r="L3">
+        <v>9005.51</v>
+      </c>
+      <c r="M3">
+        <v>9624.41</v>
+      </c>
+      <c r="N3">
+        <v>9898.809999999999</v>
+      </c>
+      <c r="O3">
+        <v>10062.73</v>
+      </c>
+      <c r="P3">
+        <v>9702.52</v>
+      </c>
+      <c r="Q3">
+        <v>6679.43</v>
+      </c>
+      <c r="R3">
+        <v>8745.879999999999</v>
+      </c>
+      <c r="S3">
+        <v>10145.89</v>
+      </c>
+      <c r="T3">
+        <v>11274.67</v>
+      </c>
+      <c r="U3">
+        <v>10879.19</v>
+      </c>
+      <c r="V3">
+        <v>11165.47</v>
+      </c>
+      <c r="W3">
+        <v>12125.61</v>
+      </c>
+      <c r="X3">
+        <v>11841.91</v>
+      </c>
+      <c r="Y3">
+        <v>12473.35</v>
+      </c>
+      <c r="Z3">
+        <v>10748.51</v>
+      </c>
+      <c r="AA3">
+        <v>13459.44</v>
+      </c>
+      <c r="AB3">
+        <v>12718.27</v>
+      </c>
+      <c r="AC3">
+        <v>13008.46</v>
+      </c>
+      <c r="AD3">
+        <v>12504.24</v>
+      </c>
+      <c r="AE3">
+        <v>13615.63</v>
+      </c>
       <c r="AF3">
-        <v>12</v>
+        <v>15280.6</v>
       </c>
       <c r="AG3">
-        <v>12</v>
+        <v>13417.03</v>
       </c>
       <c r="AH3">
-        <v>12</v>
+        <v>12138.96</v>
       </c>
       <c r="AI3">
-        <v>333</v>
+        <v>11182.77</v>
       </c>
       <c r="AJ3">
-        <v>332</v>
+        <v>4047.99</v>
       </c>
       <c r="AK3">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4">
-        <v>39</v>
-      </c>
-      <c r="AD4">
-        <v>38</v>
-      </c>
-      <c r="AE4">
-        <v>38</v>
-      </c>
-      <c r="AF4">
-        <v>36</v>
-      </c>
-      <c r="AG4">
-        <v>33</v>
-      </c>
-      <c r="AH4">
-        <v>31</v>
-      </c>
-      <c r="AK4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5">
-        <v>2</v>
-      </c>
-      <c r="AD5">
-        <v>2</v>
-      </c>
-      <c r="AE5">
-        <v>2</v>
-      </c>
-      <c r="AF5">
-        <v>2</v>
-      </c>
-      <c r="AG5">
-        <v>2</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC6">
-        <v>2</v>
-      </c>
-      <c r="AD6">
-        <v>2</v>
-      </c>
-      <c r="AE6">
-        <v>2</v>
-      </c>
-      <c r="AF6">
-        <v>2</v>
-      </c>
-      <c r="AG6">
-        <v>2</v>
-      </c>
-      <c r="AH6">
-        <v>2</v>
-      </c>
-      <c r="AK6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC7">
-        <v>365</v>
-      </c>
-      <c r="AD7">
-        <v>360</v>
-      </c>
-      <c r="AE7">
-        <v>354</v>
-      </c>
-      <c r="AF7">
-        <v>355</v>
-      </c>
-      <c r="AG7">
-        <v>348</v>
-      </c>
-      <c r="AH7">
-        <v>342</v>
-      </c>
-      <c r="AI7">
-        <v>44</v>
-      </c>
-      <c r="AJ7">
-        <v>44</v>
-      </c>
-      <c r="AK7">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37">
-      <c r="A8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC8">
-        <v>6</v>
-      </c>
-      <c r="AD8">
-        <v>6</v>
-      </c>
-      <c r="AE8">
-        <v>6</v>
-      </c>
-      <c r="AF8">
-        <v>6</v>
-      </c>
-      <c r="AG8">
-        <v>6</v>
-      </c>
-      <c r="AH8">
-        <v>6</v>
-      </c>
-      <c r="AK8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC9">
-        <v>36</v>
-      </c>
-      <c r="AD9">
-        <v>36</v>
-      </c>
-      <c r="AE9">
-        <v>33</v>
-      </c>
-      <c r="AF9">
-        <v>46</v>
-      </c>
-      <c r="AG9">
-        <v>44</v>
-      </c>
-      <c r="AH9">
-        <v>43</v>
-      </c>
-      <c r="AI9">
-        <v>19</v>
-      </c>
-      <c r="AJ9">
-        <v>19</v>
-      </c>
-      <c r="AK9">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC10">
-        <v>338</v>
-      </c>
-      <c r="AD10">
-        <v>335</v>
-      </c>
-      <c r="AE10">
-        <v>323</v>
-      </c>
-      <c r="AF10">
-        <v>322</v>
-      </c>
-      <c r="AG10">
-        <v>314</v>
-      </c>
-      <c r="AH10">
-        <v>306</v>
-      </c>
-      <c r="AI10">
-        <v>2</v>
-      </c>
-      <c r="AJ10">
-        <v>2</v>
-      </c>
-      <c r="AK10">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37">
-      <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC11">
-        <v>134</v>
-      </c>
-      <c r="AD11">
-        <v>133</v>
-      </c>
-      <c r="AE11">
-        <v>128</v>
-      </c>
-      <c r="AF11">
-        <v>125</v>
-      </c>
-      <c r="AG11">
-        <v>120</v>
-      </c>
-      <c r="AH11">
-        <v>117</v>
-      </c>
-      <c r="AK11">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37">
-      <c r="A12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AI12">
-        <v>67</v>
-      </c>
-      <c r="AJ12">
-        <v>66</v>
-      </c>
-      <c r="AK12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37">
-      <c r="A13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC13">
-        <v>1978</v>
-      </c>
-      <c r="AD13">
-        <v>1968</v>
-      </c>
-      <c r="AE13">
-        <v>1947</v>
-      </c>
-      <c r="AF13">
-        <v>1916</v>
-      </c>
-      <c r="AG13">
-        <v>1903</v>
-      </c>
-      <c r="AH13">
-        <v>1879</v>
-      </c>
-      <c r="AI13">
-        <v>69</v>
-      </c>
-      <c r="AJ13">
-        <v>69</v>
-      </c>
-      <c r="AK13">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37">
-      <c r="A14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI14">
-        <v>46</v>
-      </c>
-      <c r="AJ14">
-        <v>46</v>
-      </c>
-      <c r="AK14">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37">
-      <c r="A15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC15">
-        <v>28</v>
-      </c>
-      <c r="AD15">
-        <v>27</v>
-      </c>
-      <c r="AE15">
-        <v>26</v>
-      </c>
-      <c r="AF15">
-        <v>24</v>
-      </c>
-      <c r="AG15">
-        <v>24</v>
-      </c>
-      <c r="AH15">
-        <v>21</v>
-      </c>
-      <c r="AI15">
-        <v>311</v>
-      </c>
-      <c r="AJ15">
-        <v>307</v>
-      </c>
-      <c r="AK15">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37">
-      <c r="A16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC16">
-        <v>111</v>
-      </c>
-      <c r="AD16">
-        <v>110</v>
-      </c>
-      <c r="AE16">
-        <v>109</v>
-      </c>
-      <c r="AF16">
-        <v>106</v>
-      </c>
-      <c r="AG16">
-        <v>105</v>
-      </c>
-      <c r="AH16">
-        <v>104</v>
-      </c>
-      <c r="AK16">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37">
-      <c r="A17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI17">
-        <v>248</v>
-      </c>
-      <c r="AJ17">
-        <v>247</v>
-      </c>
-      <c r="AK17">
-        <v>245</v>
+        <v>11.45</v>
       </c>
     </row>
   </sheetData>
